--- a/excel/files_08_data_analysis/file02_menu.xlsx
+++ b/excel/files_08_data_analysis/file02_menu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hanzenl-my.sharepoint.com/personal/j_hageman_pl_hanze_nl/Documents/web_pages/data_analysis/data_analysis/excel/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hanzenl-my.sharepoint.com/personal/j_hageman_pl_hanze_nl/Documents/web_pages/data_analysis/data_analysis/excel/files_08_data_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="8_{740024A6-1B65-4017-A754-DBB94AC48CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23BF2D93-5559-4432-A924-72201B63BCBD}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="8_{740024A6-1B65-4017-A754-DBB94AC48CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E43BAC2D-6611-4EA1-B4C8-2FB04E8C40A9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{50F61F0E-0366-4A0C-BD0F-19332FD87CC5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{50F61F0E-0366-4A0C-BD0F-19332FD87CC5}"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1273,9 +1273,6 @@
     <t>McFlurry with Reese's Peanut Butter Cups (Snack)</t>
   </si>
   <si>
-    <t>Total Percentage</t>
-  </si>
-  <si>
     <t>SD</t>
   </si>
   <si>
@@ -1289,6 +1286,9 @@
   </si>
   <si>
     <t>Mean</t>
+  </si>
+  <si>
+    <t>% cal from fat related to total</t>
   </si>
 </sst>
 </file>
@@ -1456,8 +1456,8 @@
     <tableColumn id="22" xr3:uid="{C095E4A3-4387-4150-91B2-4C6879E03163}" uniqueName="22" name="Vitamin C (% Daily Value)" queryTableFieldId="22"/>
     <tableColumn id="23" xr3:uid="{15905424-EFC9-4D01-8C06-4322D76F997A}" uniqueName="23" name="Calcium (% Daily Value)" queryTableFieldId="23"/>
     <tableColumn id="24" xr3:uid="{79F0ED39-6971-49FE-99DD-4BB00B1C5183}" uniqueName="24" name="Iron (% Daily Value)" queryTableFieldId="24"/>
-    <tableColumn id="26" xr3:uid="{7E5685A5-DE1F-4EF5-99F6-56DD3343899F}" uniqueName="26" name="Total Percentage" queryTableFieldId="25" dataDxfId="0">
-      <calculatedColumnFormula>SUM(X2,W2,V2,U2,R2,P2,N2,L2,I2,G2)</calculatedColumnFormula>
+    <tableColumn id="26" xr3:uid="{7E5685A5-DE1F-4EF5-99F6-56DD3343899F}" uniqueName="26" name="% cal from fat related to total" queryTableFieldId="25" dataDxfId="0">
+      <calculatedColumnFormula>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1763,8 +1763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB51FEE8-A16C-4E78-88FA-FA5B187180BE}">
   <dimension ref="A1:Y261"/>
   <sheetViews>
-    <sheetView topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:Y1"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1793,7 +1793,7 @@
     <col min="22" max="22" width="24.36328125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="22.7265625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.6328125" customWidth="1"/>
+    <col min="25" max="25" width="28.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.35">
@@ -1870,7 +1870,7 @@
         <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.35">
@@ -1947,8 +1947,8 @@
         <v>15</v>
       </c>
       <c r="Y2">
-        <f t="shared" ref="Y2:Y65" si="0">SUM(X2,W2,V2,U2,R2,P2,N2,L2,I2,G2)</f>
-        <v>240</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.35">
@@ -2025,8 +2025,8 @@
         <v>8</v>
       </c>
       <c r="Y3">
-        <f t="shared" si="0"/>
-        <v>133</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>28.000000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.35">
@@ -2103,8 +2103,8 @@
         <v>10</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="0"/>
-        <v>195</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>54.054054054054056</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.35">
@@ -2181,8 +2181,8 @@
         <v>15</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="0"/>
-        <v>313</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>55.555555555555557</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.35">
@@ -2259,8 +2259,8 @@
         <v>10</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="0"/>
-        <v>198</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>52.5</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.35">
@@ -2337,8 +2337,8 @@
         <v>20</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="0"/>
-        <v>317</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>48.837209302325576</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.35">
@@ -2415,8 +2415,8 @@
         <v>15</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="0"/>
-        <v>310</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.35">
@@ -2493,8 +2493,8 @@
         <v>20</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="0"/>
-        <v>346</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>51.923076923076927</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.35">
@@ -2571,8 +2571,8 @@
         <v>10</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="0"/>
-        <v>207</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>43.902439024390247</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.35">
@@ -2649,8 +2649,8 @@
         <v>15</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="0"/>
-        <v>237</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>46.808510638297875</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.35">
@@ -2727,8 +2727,8 @@
         <v>15</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="0"/>
-        <v>197</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>55.813953488372093</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.35">
@@ -2805,8 +2805,8 @@
         <v>15</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="0"/>
-        <v>224</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>58.333333333333336</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.35">
@@ -2883,8 +2883,8 @@
         <v>20</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="0"/>
-        <v>307</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>56.862745098039213</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.35">
@@ -2961,8 +2961,8 @@
         <v>20</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="0"/>
-        <v>332</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>57.894736842105267</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.35">
@@ -3039,8 +3039,8 @@
         <v>15</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="0"/>
-        <v>204</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>54.347826086956516</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.35">
@@ -3117,8 +3117,8 @@
         <v>15</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="0"/>
-        <v>230</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>53.846153846153847</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.35">
@@ -3195,8 +3195,8 @@
         <v>15</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="0"/>
-        <v>174</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>43.902439024390247</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.35">
@@ -3273,8 +3273,8 @@
         <v>15</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="0"/>
-        <v>201</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>46.808510638297875</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.35">
@@ -3351,8 +3351,8 @@
         <v>25</v>
       </c>
       <c r="Y20">
-        <f t="shared" si="0"/>
-        <v>359</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>53.703703703703709</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.35">
@@ -3429,8 +3429,8 @@
         <v>15</v>
       </c>
       <c r="Y21">
-        <f t="shared" si="0"/>
-        <v>292</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>41.304347826086953</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.35">
@@ -3507,8 +3507,8 @@
         <v>10</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="0"/>
-        <v>183</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.35">
@@ -3585,8 +3585,8 @@
         <v>10</v>
       </c>
       <c r="Y23">
-        <f t="shared" si="0"/>
-        <v>169</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>47.619047619047613</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.35">
@@ -3663,8 +3663,8 @@
         <v>15</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="0"/>
-        <v>323</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>50.909090909090907</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.35">
@@ -3741,8 +3741,8 @@
         <v>10</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="0"/>
-        <v>220</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.35">
@@ -3819,8 +3819,8 @@
         <v>20</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="0"/>
-        <v>363</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>45.161290322580641</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.35">
@@ -3897,8 +3897,8 @@
         <v>15</v>
       </c>
       <c r="Y27">
-        <f t="shared" si="0"/>
-        <v>256</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>40.350877192982452</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.35">
@@ -3975,8 +3975,8 @@
         <v>25</v>
       </c>
       <c r="Y28">
-        <f t="shared" si="0"/>
-        <v>383</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>46.268656716417908</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.35">
@@ -4053,8 +4053,8 @@
         <v>25</v>
       </c>
       <c r="Y29">
-        <f t="shared" si="0"/>
-        <v>496</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>58.108108108108105</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.35">
@@ -4131,8 +4131,8 @@
         <v>30</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="0"/>
-        <v>523</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>58.75</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.35">
@@ -4209,8 +4209,8 @@
         <v>15</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="0"/>
-        <v>260</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.35">
@@ -4287,8 +4287,8 @@
         <v>15</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="0"/>
-        <v>284</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>53.623188405797109</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.35">
@@ -4365,8 +4365,8 @@
         <v>40</v>
       </c>
       <c r="Y33">
-        <f t="shared" si="0"/>
-        <v>607</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>46.788990825688074</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.35">
@@ -4443,8 +4443,8 @@
         <v>40</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="0"/>
-        <v>633</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>46.956521739130437</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.35">
@@ -4521,8 +4521,8 @@
         <v>30</v>
       </c>
       <c r="Y35">
-        <f t="shared" si="0"/>
-        <v>375</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>41.414141414141412</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.35">
@@ -4599,8 +4599,8 @@
         <v>30</v>
       </c>
       <c r="Y36">
-        <f t="shared" si="0"/>
-        <v>399</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>42.857142857142854</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.35">
@@ -4677,8 +4677,8 @@
         <v>15</v>
       </c>
       <c r="Y37">
-        <f t="shared" si="0"/>
-        <v>113</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>22.857142857142858</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.35">
@@ -4755,8 +4755,8 @@
         <v>15</v>
       </c>
       <c r="Y38">
-        <f t="shared" si="0"/>
-        <v>189</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>40.384615384615387</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.35">
@@ -4833,8 +4833,8 @@
         <v>15</v>
       </c>
       <c r="Y39">
-        <f t="shared" si="0"/>
-        <v>185</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.35">
@@ -4911,8 +4911,8 @@
         <v>2</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="0"/>
-        <v>48</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>53.333333333333336</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.35">
@@ -4989,8 +4989,8 @@
         <v>15</v>
       </c>
       <c r="Y41">
-        <f t="shared" si="0"/>
-        <v>151</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>36.95652173913043</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.35">
@@ -5067,8 +5067,8 @@
         <v>10</v>
       </c>
       <c r="Y42">
-        <f t="shared" si="0"/>
-        <v>213</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>12.068965517241379</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.35">
@@ -5145,8 +5145,8 @@
         <v>10</v>
       </c>
       <c r="Y43">
-        <f t="shared" si="0"/>
-        <v>207</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>15.384615384615385</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.35">
@@ -5223,8 +5223,8 @@
         <v>25</v>
       </c>
       <c r="Y44">
-        <f t="shared" si="0"/>
-        <v>245</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>45.283018867924532</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.35">
@@ -5301,8 +5301,8 @@
         <v>25</v>
       </c>
       <c r="Y45">
-        <f t="shared" si="0"/>
-        <v>271</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>46.153846153846153</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.35">
@@ -5379,8 +5379,8 @@
         <v>30</v>
       </c>
       <c r="Y46">
-        <f t="shared" si="0"/>
-        <v>306</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>43.333333333333336</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.35">
@@ -5457,8 +5457,8 @@
         <v>30</v>
       </c>
       <c r="Y47">
-        <f t="shared" si="0"/>
-        <v>308</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>45.901639344262293</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.35">
@@ -5535,8 +5535,8 @@
         <v>30</v>
       </c>
       <c r="Y48">
-        <f t="shared" si="0"/>
-        <v>265</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>46.296296296296298</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.35">
@@ -5613,8 +5613,8 @@
         <v>35</v>
       </c>
       <c r="Y49">
-        <f t="shared" si="0"/>
-        <v>370</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>50.666666666666671</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.35">
@@ -5691,8 +5691,8 @@
         <v>15</v>
       </c>
       <c r="Y50">
-        <f t="shared" si="0"/>
-        <v>103</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>29.166666666666668</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.35">
@@ -5769,8 +5769,8 @@
         <v>15</v>
       </c>
       <c r="Y51">
-        <f t="shared" si="0"/>
-        <v>149</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>34.482758620689658</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.35">
@@ -5847,8 +5847,8 @@
         <v>20</v>
       </c>
       <c r="Y52">
-        <f t="shared" si="0"/>
-        <v>239</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>44.186046511627907</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.35">
@@ -5925,8 +5925,8 @@
         <v>25</v>
       </c>
       <c r="Y53">
-        <f t="shared" si="0"/>
-        <v>355</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.35">
@@ -6003,8 +6003,8 @@
         <v>20</v>
       </c>
       <c r="Y54">
-        <f t="shared" si="0"/>
-        <v>192</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>39.473684210526315</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.35">
@@ -6081,8 +6081,8 @@
         <v>20</v>
       </c>
       <c r="Y55">
-        <f t="shared" si="0"/>
-        <v>234</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>45.454545454545453</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.35">
@@ -6159,8 +6159,8 @@
         <v>20</v>
       </c>
       <c r="Y56">
-        <f t="shared" si="0"/>
-        <v>213</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>46.511627906976742</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.35">
@@ -6237,8 +6237,8 @@
         <v>20</v>
       </c>
       <c r="Y57">
-        <f t="shared" si="0"/>
-        <v>223</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>48.837209302325576</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.35">
@@ -6315,8 +6315,8 @@
         <v>20</v>
       </c>
       <c r="Y58">
-        <f t="shared" si="0"/>
-        <v>216</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.35">
@@ -6393,8 +6393,8 @@
         <v>20</v>
       </c>
       <c r="Y59">
-        <f t="shared" si="0"/>
-        <v>184</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>39.215686274509807</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.35">
@@ -6471,8 +6471,8 @@
         <v>20</v>
       </c>
       <c r="Y60">
-        <f t="shared" si="0"/>
-        <v>152</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>22.857142857142858</v>
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.35">
@@ -6549,8 +6549,8 @@
         <v>20</v>
       </c>
       <c r="Y61">
-        <f t="shared" si="0"/>
-        <v>294</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>44.776119402985074</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.35">
@@ -6627,8 +6627,8 @@
         <v>20</v>
       </c>
       <c r="Y62">
-        <f t="shared" si="0"/>
-        <v>260</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>35.294117647058826</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.35">
@@ -6705,8 +6705,8 @@
         <v>20</v>
       </c>
       <c r="Y63">
-        <f t="shared" si="0"/>
-        <v>247</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>40.983606557377051</v>
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.35">
@@ -6783,8 +6783,8 @@
         <v>20</v>
       </c>
       <c r="Y64">
-        <f t="shared" si="0"/>
-        <v>212</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>28.888888888888886</v>
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.35">
@@ -6861,8 +6861,8 @@
         <v>15</v>
       </c>
       <c r="Y65">
-        <f t="shared" si="0"/>
-        <v>328</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>45.333333333333329</v>
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.35">
@@ -6939,8 +6939,8 @@
         <v>15</v>
       </c>
       <c r="Y66">
-        <f t="shared" ref="Y66:Y129" si="1">SUM(X66,W66,V66,U66,R66,P66,N66,L66,I66,G66)</f>
-        <v>298</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>38.983050847457626</v>
       </c>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.35">
@@ -7017,8 +7017,8 @@
         <v>15</v>
       </c>
       <c r="Y67">
-        <f t="shared" si="1"/>
-        <v>153</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>39.534883720930232</v>
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.35">
@@ -7095,8 +7095,8 @@
         <v>15</v>
       </c>
       <c r="Y68">
-        <f t="shared" si="1"/>
-        <v>131</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>38.888888888888893</v>
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.35">
@@ -7173,8 +7173,8 @@
         <v>15</v>
       </c>
       <c r="Y69">
-        <f t="shared" si="1"/>
-        <v>218</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>45.833333333333329</v>
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.35">
@@ -7251,8 +7251,8 @@
         <v>15</v>
       </c>
       <c r="Y70">
-        <f t="shared" si="1"/>
-        <v>190</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>44.186046511627907</v>
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.35">
@@ -7329,8 +7329,8 @@
         <v>15</v>
       </c>
       <c r="Y71">
-        <f t="shared" si="1"/>
-        <v>147</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>41.666666666666671</v>
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.35">
@@ -7407,8 +7407,8 @@
         <v>20</v>
       </c>
       <c r="Y72">
-        <f t="shared" si="1"/>
-        <v>336</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>44.444444444444443</v>
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.35">
@@ -7485,8 +7485,8 @@
         <v>20</v>
       </c>
       <c r="Y73">
-        <f t="shared" si="1"/>
-        <v>305</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>35.416666666666671</v>
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.35">
@@ -7563,8 +7563,8 @@
         <v>20</v>
       </c>
       <c r="Y74">
-        <f t="shared" si="1"/>
-        <v>312</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>45.901639344262293</v>
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.35">
@@ -7641,8 +7641,8 @@
         <v>20</v>
       </c>
       <c r="Y75">
-        <f t="shared" si="1"/>
-        <v>272</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>35.555555555555557</v>
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.35">
@@ -7719,8 +7719,8 @@
         <v>20</v>
       </c>
       <c r="Y76">
-        <f t="shared" si="1"/>
-        <v>331</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>44.776119402985074</v>
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.35">
@@ -7797,8 +7797,8 @@
         <v>20</v>
       </c>
       <c r="Y77">
-        <f t="shared" si="1"/>
-        <v>308</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>34.615384615384613</v>
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.35">
@@ -7875,8 +7875,8 @@
         <v>20</v>
       </c>
       <c r="Y78">
-        <f t="shared" si="1"/>
-        <v>262</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>37.037037037037038</v>
       </c>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.35">
@@ -7953,8 +7953,8 @@
         <v>20</v>
       </c>
       <c r="Y79">
-        <f t="shared" si="1"/>
-        <v>228</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>23.684210526315788</v>
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.35">
@@ -8031,8 +8031,8 @@
         <v>2</v>
       </c>
       <c r="Y80">
-        <f t="shared" si="1"/>
-        <v>62</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>57.894736842105267</v>
       </c>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.35">
@@ -8109,8 +8109,8 @@
         <v>4</v>
       </c>
       <c r="Y81">
-        <f t="shared" si="1"/>
-        <v>95</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>57.142857142857139</v>
       </c>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.35">
@@ -8187,8 +8187,8 @@
         <v>6</v>
       </c>
       <c r="Y82">
-        <f t="shared" si="1"/>
-        <v>157</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>57.446808510638306</v>
       </c>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.35">
@@ -8265,8 +8265,8 @@
         <v>10</v>
       </c>
       <c r="Y83">
-        <f t="shared" si="1"/>
-        <v>314</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>56.38297872340425</v>
       </c>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.35">
@@ -8343,8 +8343,8 @@
         <v>25</v>
       </c>
       <c r="Y84">
-        <f t="shared" si="1"/>
-        <v>633</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>56.38297872340425</v>
       </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.35">
@@ -8421,8 +8421,8 @@
         <v>10</v>
       </c>
       <c r="Y85">
-        <f t="shared" si="1"/>
-        <v>133</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>43.589743589743591</v>
       </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.35">
@@ -8499,8 +8499,8 @@
         <v>6</v>
       </c>
       <c r="Y86">
-        <f t="shared" si="1"/>
-        <v>287</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.35">
@@ -8577,8 +8577,8 @@
         <v>8</v>
       </c>
       <c r="Y87">
-        <f t="shared" si="1"/>
-        <v>286</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.35">
@@ -8655,8 +8655,8 @@
         <v>8</v>
       </c>
       <c r="Y88">
-        <f t="shared" si="1"/>
-        <v>267</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>36.363636363636367</v>
       </c>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.35">
@@ -8733,8 +8733,8 @@
         <v>10</v>
       </c>
       <c r="Y89">
-        <f t="shared" si="1"/>
-        <v>265</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>28.571428571428569</v>
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.35">
@@ -8811,8 +8811,8 @@
         <v>15</v>
       </c>
       <c r="Y90">
-        <f t="shared" si="1"/>
-        <v>379</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>42.222222222222221</v>
       </c>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.35">
@@ -8889,8 +8889,8 @@
         <v>15</v>
       </c>
       <c r="Y91">
-        <f t="shared" si="1"/>
-        <v>344</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>27.586206896551722</v>
       </c>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.35">
@@ -8967,8 +8967,8 @@
         <v>10</v>
       </c>
       <c r="Y92">
-        <f t="shared" si="1"/>
-        <v>131</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>38.235294117647058</v>
       </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.35">
@@ -9045,8 +9045,8 @@
         <v>10</v>
       </c>
       <c r="Y93">
-        <f t="shared" si="1"/>
-        <v>116</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>26.923076923076923</v>
       </c>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.35">
@@ -9123,8 +9123,8 @@
         <v>10</v>
       </c>
       <c r="Y94">
-        <f t="shared" si="1"/>
-        <v>124</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>39.393939393939391</v>
       </c>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.35">
@@ -9201,8 +9201,8 @@
         <v>10</v>
       </c>
       <c r="Y95">
-        <f t="shared" si="1"/>
-        <v>110</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>28.000000000000004</v>
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.35">
@@ -9279,8 +9279,8 @@
         <v>10</v>
       </c>
       <c r="Y96">
-        <f t="shared" si="1"/>
-        <v>142</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.35">
@@ -9357,8 +9357,8 @@
         <v>10</v>
       </c>
       <c r="Y97">
-        <f t="shared" si="1"/>
-        <v>125</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>42.857142857142854</v>
       </c>
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.35">
@@ -9435,8 +9435,8 @@
         <v>4</v>
       </c>
       <c r="Y98">
-        <f t="shared" si="1"/>
-        <v>84</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>43.478260869565219</v>
       </c>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.35">
@@ -9513,8 +9513,8 @@
         <v>4</v>
       </c>
       <c r="Y99">
-        <f t="shared" si="1"/>
-        <v>123</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>41.17647058823529</v>
       </c>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.35">
@@ -9591,8 +9591,8 @@
         <v>8</v>
       </c>
       <c r="Y100">
-        <f t="shared" si="1"/>
-        <v>190</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>43.137254901960787</v>
       </c>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.35">
@@ -9669,8 +9669,8 @@
         <v>2</v>
       </c>
       <c r="Y101">
-        <f t="shared" si="1"/>
-        <v>42</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>45.454545454545453</v>
       </c>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.35">
@@ -9747,8 +9747,8 @@
         <v>4</v>
       </c>
       <c r="Y102">
-        <f t="shared" si="1"/>
-        <v>83</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.35">
@@ -9825,8 +9825,8 @@
         <v>0</v>
       </c>
       <c r="Y103">
-        <f t="shared" si="1"/>
-        <v>163</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.35">
@@ -9903,8 +9903,8 @@
         <v>4</v>
       </c>
       <c r="Y104">
-        <f t="shared" si="1"/>
-        <v>57</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>13.333333333333334</v>
       </c>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.35">
@@ -9981,8 +9981,8 @@
         <v>6</v>
       </c>
       <c r="Y105">
-        <f t="shared" si="1"/>
-        <v>124</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>44</v>
       </c>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.35">
@@ -10059,8 +10059,8 @@
         <v>8</v>
       </c>
       <c r="Y106">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>43.75</v>
       </c>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.35">
@@ -10137,8 +10137,8 @@
         <v>6</v>
       </c>
       <c r="Y107">
-        <f t="shared" si="1"/>
-        <v>51</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.35">
@@ -10215,8 +10215,8 @@
         <v>0</v>
       </c>
       <c r="Y108">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>22.222222222222221</v>
       </c>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.35">
@@ -10293,8 +10293,8 @@
         <v>8</v>
       </c>
       <c r="Y109">
-        <f t="shared" si="1"/>
-        <v>125</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>24.242424242424242</v>
       </c>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.35">
@@ -10371,8 +10371,8 @@
         <v>0</v>
       </c>
       <c r="Y110">
-        <f t="shared" si="1"/>
-        <v>107</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>20.588235294117645</v>
       </c>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.35">
@@ -10449,8 +10449,8 @@
         <v>0</v>
       </c>
       <c r="Y111">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>21.428571428571427</v>
       </c>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.35">
@@ -10527,8 +10527,8 @@
         <v>0</v>
       </c>
       <c r="Y112">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.35">
@@ -10605,8 +10605,8 @@
         <v>0</v>
       </c>
       <c r="Y113">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.35">
@@ -10683,8 +10683,8 @@
         <v>0</v>
       </c>
       <c r="Y114">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.35">
@@ -10761,8 +10761,8 @@
         <v>0</v>
       </c>
       <c r="Y115">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.35">
@@ -10839,7 +10839,7 @@
         <v>0</v>
       </c>
       <c r="Y116">
-        <f t="shared" si="1"/>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
         <v>0</v>
       </c>
     </row>
@@ -10917,8 +10917,8 @@
         <v>0</v>
       </c>
       <c r="Y117">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.35">
@@ -10995,8 +10995,8 @@
         <v>0</v>
       </c>
       <c r="Y118">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.35">
@@ -11073,8 +11073,8 @@
         <v>0</v>
       </c>
       <c r="Y119">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.35">
@@ -11151,8 +11151,8 @@
         <v>0</v>
       </c>
       <c r="Y120">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.35">
@@ -11229,8 +11229,8 @@
         <v>0</v>
       </c>
       <c r="Y121">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.35">
@@ -11307,8 +11307,8 @@
         <v>0</v>
       </c>
       <c r="Y122">
-        <f t="shared" si="1"/>
-        <v>28</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.35">
@@ -11385,8 +11385,8 @@
         <v>0</v>
       </c>
       <c r="Y123">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.35">
@@ -11463,8 +11463,8 @@
         <v>0</v>
       </c>
       <c r="Y124">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.35">
@@ -11541,8 +11541,8 @@
         <v>0</v>
       </c>
       <c r="Y125">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.35">
@@ -11619,8 +11619,8 @@
         <v>0</v>
       </c>
       <c r="Y126">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.35">
@@ -11697,8 +11697,8 @@
         <v>0</v>
       </c>
       <c r="Y127">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.35">
@@ -11775,8 +11775,8 @@
         <v>0</v>
       </c>
       <c r="Y128">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.35">
@@ -11853,8 +11853,8 @@
         <v>0</v>
       </c>
       <c r="Y129">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:25" x14ac:dyDescent="0.35">
@@ -11931,8 +11931,8 @@
         <v>0</v>
       </c>
       <c r="Y130">
-        <f t="shared" ref="Y130:Y193" si="2">SUM(X130,W130,V130,U130,R130,P130,N130,L130,I130,G130)</f>
-        <v>28</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:25" x14ac:dyDescent="0.35">
@@ -12009,8 +12009,8 @@
         <v>0</v>
       </c>
       <c r="Y131">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:25" x14ac:dyDescent="0.35">
@@ -12087,8 +12087,8 @@
         <v>0</v>
       </c>
       <c r="Y132">
-        <f t="shared" si="2"/>
-        <v>68</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="133" spans="1:25" x14ac:dyDescent="0.35">
@@ -12165,8 +12165,8 @@
         <v>8</v>
       </c>
       <c r="Y133">
-        <f t="shared" si="2"/>
-        <v>66</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:25" x14ac:dyDescent="0.35">
@@ -12243,8 +12243,8 @@
         <v>0</v>
       </c>
       <c r="Y134">
-        <f t="shared" si="2"/>
-        <v>118</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:25" x14ac:dyDescent="0.35">
@@ -12321,8 +12321,8 @@
         <v>0</v>
       </c>
       <c r="Y135">
-        <f t="shared" si="2"/>
-        <v>143</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:25" x14ac:dyDescent="0.35">
@@ -12399,8 +12399,8 @@
         <v>0</v>
       </c>
       <c r="Y136">
-        <f t="shared" si="2"/>
-        <v>179</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:25" x14ac:dyDescent="0.35">
@@ -12477,8 +12477,8 @@
         <v>0</v>
       </c>
       <c r="Y137">
-        <f t="shared" si="2"/>
-        <v>266</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:25" x14ac:dyDescent="0.35">
@@ -12555,7 +12555,7 @@
         <v>0</v>
       </c>
       <c r="Y138">
-        <f t="shared" si="2"/>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
         <v>0</v>
       </c>
     </row>
@@ -12633,7 +12633,7 @@
         <v>0</v>
       </c>
       <c r="Y139">
-        <f t="shared" si="2"/>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
         <v>0</v>
       </c>
     </row>
@@ -12711,7 +12711,7 @@
         <v>0</v>
       </c>
       <c r="Y140">
-        <f t="shared" si="2"/>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
         <v>0</v>
       </c>
     </row>
@@ -12789,8 +12789,8 @@
         <v>0</v>
       </c>
       <c r="Y141">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:25" x14ac:dyDescent="0.35">
@@ -12867,7 +12867,7 @@
         <v>0</v>
       </c>
       <c r="Y142">
-        <f t="shared" si="2"/>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
         <v>0</v>
       </c>
     </row>
@@ -12945,8 +12945,8 @@
         <v>0</v>
       </c>
       <c r="Y143">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:25" x14ac:dyDescent="0.35">
@@ -13023,8 +13023,8 @@
         <v>0</v>
       </c>
       <c r="Y144">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:25" x14ac:dyDescent="0.35">
@@ -13101,8 +13101,8 @@
         <v>0</v>
       </c>
       <c r="Y145">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:25" x14ac:dyDescent="0.35">
@@ -13179,8 +13179,8 @@
         <v>0</v>
       </c>
       <c r="Y146">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:25" x14ac:dyDescent="0.35">
@@ -13257,7 +13257,7 @@
         <v>0</v>
       </c>
       <c r="Y147">
-        <f t="shared" si="2"/>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
         <v>0</v>
       </c>
     </row>
@@ -13335,7 +13335,7 @@
         <v>0</v>
       </c>
       <c r="Y148">
-        <f t="shared" si="2"/>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
         <v>0</v>
       </c>
     </row>
@@ -13413,7 +13413,7 @@
         <v>0</v>
       </c>
       <c r="Y149">
-        <f t="shared" si="2"/>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
         <v>0</v>
       </c>
     </row>
@@ -13491,8 +13491,8 @@
         <v>0</v>
       </c>
       <c r="Y150">
-        <f t="shared" si="2"/>
-        <v>97</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>47.058823529411761</v>
       </c>
     </row>
     <row r="151" spans="1:25" x14ac:dyDescent="0.35">
@@ -13569,8 +13569,8 @@
         <v>0</v>
       </c>
       <c r="Y151">
-        <f t="shared" si="2"/>
-        <v>118</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>42.857142857142854</v>
       </c>
     </row>
     <row r="152" spans="1:25" x14ac:dyDescent="0.35">
@@ -13647,8 +13647,8 @@
         <v>2</v>
       </c>
       <c r="Y152">
-        <f t="shared" si="2"/>
-        <v>163</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>42.857142857142854</v>
       </c>
     </row>
     <row r="153" spans="1:25" x14ac:dyDescent="0.35">
@@ -13725,8 +13725,8 @@
         <v>0</v>
       </c>
       <c r="Y153">
-        <f t="shared" si="2"/>
-        <v>105</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>29.629629629629626</v>
       </c>
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.35">
@@ -13803,8 +13803,8 @@
         <v>0</v>
       </c>
       <c r="Y154">
-        <f t="shared" si="2"/>
-        <v>129</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>26.47058823529412</v>
       </c>
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.35">
@@ -13881,8 +13881,8 @@
         <v>2</v>
       </c>
       <c r="Y155">
-        <f t="shared" si="2"/>
-        <v>176</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>27.906976744186046</v>
       </c>
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.35">
@@ -13959,8 +13959,8 @@
         <v>0</v>
       </c>
       <c r="Y156">
-        <f t="shared" si="2"/>
-        <v>105</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>29.629629629629626</v>
       </c>
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.35">
@@ -14037,8 +14037,8 @@
         <v>0</v>
       </c>
       <c r="Y157">
-        <f t="shared" si="2"/>
-        <v>129</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>27.27272727272727</v>
       </c>
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.35">
@@ -14115,8 +14115,8 @@
         <v>2</v>
       </c>
       <c r="Y158">
-        <f t="shared" si="2"/>
-        <v>176</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>27.906976744186046</v>
       </c>
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.35">
@@ -14193,8 +14193,8 @@
         <v>0</v>
       </c>
       <c r="Y159">
-        <f t="shared" si="2"/>
-        <v>105</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>30.76923076923077</v>
       </c>
     </row>
     <row r="160" spans="1:25" x14ac:dyDescent="0.35">
@@ -14271,8 +14271,8 @@
         <v>2</v>
       </c>
       <c r="Y160">
-        <f t="shared" si="2"/>
-        <v>130</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>27.27272727272727</v>
       </c>
     </row>
     <row r="161" spans="1:25" x14ac:dyDescent="0.35">
@@ -14349,8 +14349,8 @@
         <v>2</v>
       </c>
       <c r="Y161">
-        <f t="shared" si="2"/>
-        <v>175</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>28.571428571428569</v>
       </c>
     </row>
     <row r="162" spans="1:25" x14ac:dyDescent="0.35">
@@ -14427,8 +14427,8 @@
         <v>0</v>
       </c>
       <c r="Y162">
-        <f t="shared" si="2"/>
-        <v>102</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>38.095238095238095</v>
       </c>
     </row>
     <row r="163" spans="1:25" x14ac:dyDescent="0.35">
@@ -14505,8 +14505,8 @@
         <v>0</v>
       </c>
       <c r="Y163">
-        <f t="shared" si="2"/>
-        <v>125</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>34.615384615384613</v>
       </c>
     </row>
     <row r="164" spans="1:25" x14ac:dyDescent="0.35">
@@ -14583,8 +14583,8 @@
         <v>2</v>
       </c>
       <c r="Y164">
-        <f t="shared" si="2"/>
-        <v>170</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>36.363636363636367</v>
       </c>
     </row>
     <row r="165" spans="1:25" x14ac:dyDescent="0.35">
@@ -14661,8 +14661,8 @@
         <v>0</v>
       </c>
       <c r="Y165">
-        <f t="shared" si="2"/>
-        <v>55</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:25" x14ac:dyDescent="0.35">
@@ -14739,8 +14739,8 @@
         <v>0</v>
       </c>
       <c r="Y166">
-        <f t="shared" si="2"/>
-        <v>73</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:25" x14ac:dyDescent="0.35">
@@ -14817,8 +14817,8 @@
         <v>2</v>
       </c>
       <c r="Y167">
-        <f t="shared" si="2"/>
-        <v>92</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:25" x14ac:dyDescent="0.35">
@@ -14895,8 +14895,8 @@
         <v>0</v>
       </c>
       <c r="Y168">
-        <f t="shared" si="2"/>
-        <v>64</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:25" x14ac:dyDescent="0.35">
@@ -14973,8 +14973,8 @@
         <v>0</v>
       </c>
       <c r="Y169">
-        <f t="shared" si="2"/>
-        <v>84</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:25" x14ac:dyDescent="0.35">
@@ -15051,8 +15051,8 @@
         <v>2</v>
       </c>
       <c r="Y170">
-        <f t="shared" si="2"/>
-        <v>105</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:25" x14ac:dyDescent="0.35">
@@ -15129,8 +15129,8 @@
         <v>0</v>
       </c>
       <c r="Y171">
-        <f t="shared" si="2"/>
-        <v>63</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:25" x14ac:dyDescent="0.35">
@@ -15207,8 +15207,8 @@
         <v>0</v>
       </c>
       <c r="Y172">
-        <f t="shared" si="2"/>
-        <v>84</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:25" x14ac:dyDescent="0.35">
@@ -15285,8 +15285,8 @@
         <v>2</v>
       </c>
       <c r="Y173">
-        <f t="shared" si="2"/>
-        <v>105</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:25" x14ac:dyDescent="0.35">
@@ -15363,8 +15363,8 @@
         <v>0</v>
       </c>
       <c r="Y174">
-        <f t="shared" si="2"/>
-        <v>63</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:25" x14ac:dyDescent="0.35">
@@ -15441,8 +15441,8 @@
         <v>2</v>
       </c>
       <c r="Y175">
-        <f t="shared" si="2"/>
-        <v>85</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:25" x14ac:dyDescent="0.35">
@@ -15519,8 +15519,8 @@
         <v>2</v>
       </c>
       <c r="Y176">
-        <f t="shared" si="2"/>
-        <v>105</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:25" x14ac:dyDescent="0.35">
@@ -15597,8 +15597,8 @@
         <v>0</v>
       </c>
       <c r="Y177">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:25" x14ac:dyDescent="0.35">
@@ -15675,8 +15675,8 @@
         <v>0</v>
       </c>
       <c r="Y178">
-        <f t="shared" si="2"/>
-        <v>80</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:25" x14ac:dyDescent="0.35">
@@ -15753,8 +15753,8 @@
         <v>2</v>
       </c>
       <c r="Y179">
-        <f t="shared" si="2"/>
-        <v>101</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:25" x14ac:dyDescent="0.35">
@@ -15831,8 +15831,8 @@
         <v>6</v>
       </c>
       <c r="Y180">
-        <f t="shared" si="2"/>
-        <v>138</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>29.411764705882355</v>
       </c>
     </row>
     <row r="181" spans="1:25" x14ac:dyDescent="0.35">
@@ -15909,8 +15909,8 @@
         <v>6</v>
       </c>
       <c r="Y181">
-        <f t="shared" si="2"/>
-        <v>167</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>29.268292682926827</v>
       </c>
     </row>
     <row r="182" spans="1:25" x14ac:dyDescent="0.35">
@@ -15987,8 +15987,8 @@
         <v>8</v>
       </c>
       <c r="Y182">
-        <f t="shared" si="2"/>
-        <v>209</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="183" spans="1:25" x14ac:dyDescent="0.35">
@@ -16065,8 +16065,8 @@
         <v>6</v>
       </c>
       <c r="Y183">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>11.111111111111111</v>
       </c>
     </row>
     <row r="184" spans="1:25" x14ac:dyDescent="0.35">
@@ -16143,8 +16143,8 @@
         <v>6</v>
       </c>
       <c r="Y184">
-        <f t="shared" si="2"/>
-        <v>119</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>9.0909090909090917</v>
       </c>
     </row>
     <row r="185" spans="1:25" x14ac:dyDescent="0.35">
@@ -16221,8 +16221,8 @@
         <v>8</v>
       </c>
       <c r="Y185">
-        <f t="shared" si="2"/>
-        <v>146</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>8.9743589743589745</v>
       </c>
     </row>
     <row r="186" spans="1:25" x14ac:dyDescent="0.35">
@@ -16299,8 +16299,8 @@
         <v>2</v>
       </c>
       <c r="Y186">
-        <f t="shared" si="2"/>
-        <v>129</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>31.25</v>
       </c>
     </row>
     <row r="187" spans="1:25" x14ac:dyDescent="0.35">
@@ -16377,8 +16377,8 @@
         <v>2</v>
       </c>
       <c r="Y187">
-        <f t="shared" si="2"/>
-        <v>163</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>30.76923076923077</v>
       </c>
     </row>
     <row r="188" spans="1:25" x14ac:dyDescent="0.35">
@@ -16455,8 +16455,8 @@
         <v>4</v>
       </c>
       <c r="Y188">
-        <f t="shared" si="2"/>
-        <v>199</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>31.25</v>
       </c>
     </row>
     <row r="189" spans="1:25" x14ac:dyDescent="0.35">
@@ -16533,8 +16533,8 @@
         <v>2</v>
       </c>
       <c r="Y189">
-        <f t="shared" si="2"/>
-        <v>92</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="190" spans="1:25" x14ac:dyDescent="0.35">
@@ -16611,8 +16611,8 @@
         <v>2</v>
       </c>
       <c r="Y190">
-        <f t="shared" si="2"/>
-        <v>110</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="191" spans="1:25" x14ac:dyDescent="0.35">
@@ -16689,8 +16689,8 @@
         <v>4</v>
       </c>
       <c r="Y191">
-        <f t="shared" si="2"/>
-        <v>135</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>9.4594594594594597</v>
       </c>
     </row>
     <row r="192" spans="1:25" x14ac:dyDescent="0.35">
@@ -16767,8 +16767,8 @@
         <v>6</v>
       </c>
       <c r="Y192">
-        <f t="shared" si="2"/>
-        <v>158</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="193" spans="1:25" x14ac:dyDescent="0.35">
@@ -16845,8 +16845,8 @@
         <v>6</v>
       </c>
       <c r="Y193">
-        <f t="shared" si="2"/>
-        <v>187</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>31.818181818181817</v>
       </c>
     </row>
     <row r="194" spans="1:25" x14ac:dyDescent="0.35">
@@ -16923,8 +16923,8 @@
         <v>8</v>
       </c>
       <c r="Y194">
-        <f t="shared" ref="Y194:Y257" si="3">SUM(X194,W194,V194,U194,R194,P194,N194,L194,I194,G194)</f>
-        <v>238</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="195" spans="1:25" x14ac:dyDescent="0.35">
@@ -17001,8 +17001,8 @@
         <v>6</v>
       </c>
       <c r="Y195">
-        <f t="shared" si="3"/>
-        <v>109</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>10.714285714285714</v>
       </c>
     </row>
     <row r="196" spans="1:25" x14ac:dyDescent="0.35">
@@ -17079,8 +17079,8 @@
         <v>6</v>
       </c>
       <c r="Y196">
-        <f t="shared" si="3"/>
-        <v>131</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>8.8235294117647065</v>
       </c>
     </row>
     <row r="197" spans="1:25" x14ac:dyDescent="0.35">
@@ -17157,8 +17157,8 @@
         <v>8</v>
       </c>
       <c r="Y197">
-        <f t="shared" si="3"/>
-        <v>160</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>8.75</v>
       </c>
     </row>
     <row r="198" spans="1:25" x14ac:dyDescent="0.35">
@@ -17235,8 +17235,8 @@
         <v>0</v>
       </c>
       <c r="Y198">
-        <f t="shared" si="3"/>
-        <v>45</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>28.571428571428569</v>
       </c>
     </row>
     <row r="199" spans="1:25" x14ac:dyDescent="0.35">
@@ -17313,8 +17313,8 @@
         <v>0</v>
       </c>
       <c r="Y199">
-        <f t="shared" si="3"/>
-        <v>62</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>31.578947368421051</v>
       </c>
     </row>
     <row r="200" spans="1:25" x14ac:dyDescent="0.35">
@@ -17391,8 +17391,8 @@
         <v>0</v>
       </c>
       <c r="Y200">
-        <f t="shared" si="3"/>
-        <v>88</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>29.629629629629626</v>
       </c>
     </row>
     <row r="201" spans="1:25" x14ac:dyDescent="0.35">
@@ -17469,8 +17469,8 @@
         <v>0</v>
       </c>
       <c r="Y201">
-        <f t="shared" si="3"/>
-        <v>45</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>30.76923076923077</v>
       </c>
     </row>
     <row r="202" spans="1:25" x14ac:dyDescent="0.35">
@@ -17547,8 +17547,8 @@
         <v>0</v>
       </c>
       <c r="Y202">
-        <f t="shared" si="3"/>
-        <v>62</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="203" spans="1:25" x14ac:dyDescent="0.35">
@@ -17625,8 +17625,8 @@
         <v>0</v>
       </c>
       <c r="Y203">
-        <f t="shared" si="3"/>
-        <v>84</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>30.76923076923077</v>
       </c>
     </row>
     <row r="204" spans="1:25" x14ac:dyDescent="0.35">
@@ -17703,8 +17703,8 @@
         <v>0</v>
       </c>
       <c r="Y204">
-        <f t="shared" si="3"/>
-        <v>44</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>30.76923076923077</v>
       </c>
     </row>
     <row r="205" spans="1:25" x14ac:dyDescent="0.35">
@@ -17781,8 +17781,8 @@
         <v>0</v>
       </c>
       <c r="Y205">
-        <f t="shared" si="3"/>
-        <v>62</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="206" spans="1:25" x14ac:dyDescent="0.35">
@@ -17859,8 +17859,8 @@
         <v>0</v>
       </c>
       <c r="Y206">
-        <f t="shared" si="3"/>
-        <v>86</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>32</v>
       </c>
     </row>
     <row r="207" spans="1:25" x14ac:dyDescent="0.35">
@@ -17937,8 +17937,8 @@
         <v>0</v>
       </c>
       <c r="Y207">
-        <f t="shared" si="3"/>
-        <v>45</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="208" spans="1:25" x14ac:dyDescent="0.35">
@@ -18015,8 +18015,8 @@
         <v>0</v>
       </c>
       <c r="Y208">
-        <f t="shared" si="3"/>
-        <v>61</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>35.294117647058826</v>
       </c>
     </row>
     <row r="209" spans="1:25" x14ac:dyDescent="0.35">
@@ -18093,8 +18093,8 @@
         <v>0</v>
       </c>
       <c r="Y209">
-        <f t="shared" si="3"/>
-        <v>86</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="210" spans="1:25" x14ac:dyDescent="0.35">
@@ -18171,8 +18171,8 @@
         <v>0</v>
       </c>
       <c r="Y210">
-        <f t="shared" si="3"/>
-        <v>42</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="211" spans="1:25" x14ac:dyDescent="0.35">
@@ -18249,8 +18249,8 @@
         <v>0</v>
       </c>
       <c r="Y211">
-        <f t="shared" si="3"/>
-        <v>58</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="212" spans="1:25" x14ac:dyDescent="0.35">
@@ -18327,8 +18327,8 @@
         <v>0</v>
       </c>
       <c r="Y212">
-        <f t="shared" si="3"/>
-        <v>81</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="213" spans="1:25" x14ac:dyDescent="0.35">
@@ -18405,8 +18405,8 @@
         <v>4</v>
       </c>
       <c r="Y213">
-        <f t="shared" si="3"/>
-        <v>124</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>34.482758620689658</v>
       </c>
     </row>
     <row r="214" spans="1:25" x14ac:dyDescent="0.35">
@@ -18483,8 +18483,8 @@
         <v>6</v>
       </c>
       <c r="Y214">
-        <f t="shared" si="3"/>
-        <v>144</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>31.428571428571427</v>
       </c>
     </row>
     <row r="215" spans="1:25" x14ac:dyDescent="0.35">
@@ -18561,8 +18561,8 @@
         <v>8</v>
       </c>
       <c r="Y215">
-        <f t="shared" si="3"/>
-        <v>194</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>31.25</v>
       </c>
     </row>
     <row r="216" spans="1:25" x14ac:dyDescent="0.35">
@@ -18639,8 +18639,8 @@
         <v>4</v>
       </c>
       <c r="Y216">
-        <f t="shared" si="3"/>
-        <v>93</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>18.75</v>
       </c>
     </row>
     <row r="217" spans="1:25" x14ac:dyDescent="0.35">
@@ -18717,8 +18717,8 @@
         <v>6</v>
       </c>
       <c r="Y217">
-        <f t="shared" si="3"/>
-        <v>111</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>15.517241379310345</v>
       </c>
     </row>
     <row r="218" spans="1:25" x14ac:dyDescent="0.35">
@@ -18795,8 +18795,8 @@
         <v>8</v>
       </c>
       <c r="Y218">
-        <f t="shared" si="3"/>
-        <v>149</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>12.820512820512819</v>
       </c>
     </row>
     <row r="219" spans="1:25" x14ac:dyDescent="0.35">
@@ -18873,8 +18873,8 @@
         <v>2</v>
       </c>
       <c r="Y219">
-        <f t="shared" si="3"/>
-        <v>118</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>35.714285714285715</v>
       </c>
     </row>
     <row r="220" spans="1:25" x14ac:dyDescent="0.35">
@@ -18951,8 +18951,8 @@
         <v>2</v>
       </c>
       <c r="Y220">
-        <f t="shared" si="3"/>
-        <v>135</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>32.352941176470587</v>
       </c>
     </row>
     <row r="221" spans="1:25" x14ac:dyDescent="0.35">
@@ -19029,8 +19029,8 @@
         <v>4</v>
       </c>
       <c r="Y221">
-        <f t="shared" si="3"/>
-        <v>184</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>32.608695652173914</v>
       </c>
     </row>
     <row r="222" spans="1:25" x14ac:dyDescent="0.35">
@@ -19107,8 +19107,8 @@
         <v>2</v>
       </c>
       <c r="Y222">
-        <f t="shared" si="3"/>
-        <v>87</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>19.565217391304348</v>
       </c>
     </row>
     <row r="223" spans="1:25" x14ac:dyDescent="0.35">
@@ -19185,8 +19185,8 @@
         <v>2</v>
       </c>
       <c r="Y223">
-        <f t="shared" si="3"/>
-        <v>103</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>16.666666666666664</v>
       </c>
     </row>
     <row r="224" spans="1:25" x14ac:dyDescent="0.35">
@@ -19263,8 +19263,8 @@
         <v>4</v>
       </c>
       <c r="Y224">
-        <f t="shared" si="3"/>
-        <v>137</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>13.513513513513514</v>
       </c>
     </row>
     <row r="225" spans="1:25" x14ac:dyDescent="0.35">
@@ -19341,8 +19341,8 @@
         <v>4</v>
       </c>
       <c r="Y225">
-        <f t="shared" si="3"/>
-        <v>177</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>35.555555555555557</v>
       </c>
     </row>
     <row r="226" spans="1:25" x14ac:dyDescent="0.35">
@@ -19419,8 +19419,8 @@
         <v>4</v>
       </c>
       <c r="Y226">
-        <f t="shared" si="3"/>
-        <v>212</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>36.363636363636367</v>
       </c>
     </row>
     <row r="227" spans="1:25" x14ac:dyDescent="0.35">
@@ -19497,8 +19497,8 @@
         <v>4</v>
       </c>
       <c r="Y227">
-        <f t="shared" si="3"/>
-        <v>260</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>35.820895522388057</v>
       </c>
     </row>
     <row r="228" spans="1:25" x14ac:dyDescent="0.35">
@@ -19575,8 +19575,8 @@
         <v>2</v>
       </c>
       <c r="Y228">
-        <f t="shared" si="3"/>
-        <v>179</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>37.777777777777779</v>
       </c>
     </row>
     <row r="229" spans="1:25" x14ac:dyDescent="0.35">
@@ -19653,8 +19653,8 @@
         <v>2</v>
       </c>
       <c r="Y229">
-        <f t="shared" si="3"/>
-        <v>220</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>36.363636363636367</v>
       </c>
     </row>
     <row r="230" spans="1:25" x14ac:dyDescent="0.35">
@@ -19731,8 +19731,8 @@
         <v>2</v>
       </c>
       <c r="Y230">
-        <f t="shared" si="3"/>
-        <v>258</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>37.313432835820898</v>
       </c>
     </row>
     <row r="231" spans="1:25" x14ac:dyDescent="0.35">
@@ -19809,8 +19809,8 @@
         <v>4</v>
       </c>
       <c r="Y231">
-        <f t="shared" si="3"/>
-        <v>209</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>37.735849056603776</v>
       </c>
     </row>
     <row r="232" spans="1:25" x14ac:dyDescent="0.35">
@@ -19887,8 +19887,8 @@
         <v>4</v>
       </c>
       <c r="Y232">
-        <f t="shared" si="3"/>
-        <v>243</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>38.095238095238095</v>
       </c>
     </row>
     <row r="233" spans="1:25" x14ac:dyDescent="0.35">
@@ -19965,8 +19965,8 @@
         <v>6</v>
       </c>
       <c r="Y233">
-        <f t="shared" si="3"/>
-        <v>292</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>36.84210526315789</v>
       </c>
     </row>
     <row r="234" spans="1:25" x14ac:dyDescent="0.35">
@@ -20043,8 +20043,8 @@
         <v>2</v>
       </c>
       <c r="Y234">
-        <f t="shared" si="3"/>
-        <v>43</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>2.2727272727272729</v>
       </c>
     </row>
     <row r="235" spans="1:25" x14ac:dyDescent="0.35">
@@ -20121,8 +20121,8 @@
         <v>2</v>
       </c>
       <c r="Y235">
-        <f t="shared" si="3"/>
-        <v>54</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>1.9230769230769231</v>
       </c>
     </row>
     <row r="236" spans="1:25" x14ac:dyDescent="0.35">
@@ -20199,8 +20199,8 @@
         <v>2</v>
       </c>
       <c r="Y236">
-        <f t="shared" si="3"/>
-        <v>71</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>2.9411764705882351</v>
       </c>
     </row>
     <row r="237" spans="1:25" x14ac:dyDescent="0.35">
@@ -20277,8 +20277,8 @@
         <v>2</v>
       </c>
       <c r="Y237">
-        <f t="shared" si="3"/>
-        <v>70</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>2.3809523809523809</v>
       </c>
     </row>
     <row r="238" spans="1:25" x14ac:dyDescent="0.35">
@@ -20355,8 +20355,8 @@
         <v>4</v>
       </c>
       <c r="Y238">
-        <f t="shared" si="3"/>
-        <v>83</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:25" x14ac:dyDescent="0.35">
@@ -20433,8 +20433,8 @@
         <v>4</v>
       </c>
       <c r="Y239">
-        <f t="shared" si="3"/>
-        <v>110</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>3.0303030303030303</v>
       </c>
     </row>
     <row r="240" spans="1:25" x14ac:dyDescent="0.35">
@@ -20511,8 +20511,8 @@
         <v>2</v>
       </c>
       <c r="Y240">
-        <f t="shared" si="3"/>
-        <v>85</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>2.3809523809523809</v>
       </c>
     </row>
     <row r="241" spans="1:25" x14ac:dyDescent="0.35">
@@ -20589,8 +20589,8 @@
         <v>2</v>
       </c>
       <c r="Y241">
-        <f t="shared" si="3"/>
-        <v>104</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>3.8461538461538463</v>
       </c>
     </row>
     <row r="242" spans="1:25" x14ac:dyDescent="0.35">
@@ -20667,8 +20667,8 @@
         <v>2</v>
       </c>
       <c r="Y242">
-        <f t="shared" si="3"/>
-        <v>134</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>2.9411764705882351</v>
       </c>
     </row>
     <row r="243" spans="1:25" x14ac:dyDescent="0.35">
@@ -20745,8 +20745,8 @@
         <v>0</v>
       </c>
       <c r="Y243">
-        <f t="shared" si="3"/>
-        <v>189</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>26.415094339622641</v>
       </c>
     </row>
     <row r="244" spans="1:25" x14ac:dyDescent="0.35">
@@ -20823,8 +20823,8 @@
         <v>0</v>
       </c>
       <c r="Y244">
-        <f t="shared" si="3"/>
-        <v>234</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>25.757575757575758</v>
       </c>
     </row>
     <row r="245" spans="1:25" x14ac:dyDescent="0.35">
@@ -20901,8 +20901,8 @@
         <v>0</v>
       </c>
       <c r="Y245">
-        <f t="shared" si="3"/>
-        <v>283</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>25.609756097560975</v>
       </c>
     </row>
     <row r="246" spans="1:25" x14ac:dyDescent="0.35">
@@ -20979,8 +20979,8 @@
         <v>0</v>
       </c>
       <c r="Y246">
-        <f t="shared" si="3"/>
-        <v>195</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>27.27272727272727</v>
       </c>
     </row>
     <row r="247" spans="1:25" x14ac:dyDescent="0.35">
@@ -21057,8 +21057,8 @@
         <v>0</v>
       </c>
       <c r="Y247">
-        <f t="shared" si="3"/>
-        <v>240</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>26.086956521739129</v>
       </c>
     </row>
     <row r="248" spans="1:25" x14ac:dyDescent="0.35">
@@ -21135,8 +21135,8 @@
         <v>0</v>
       </c>
       <c r="Y248">
-        <f t="shared" si="3"/>
-        <v>299</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>24.705882352941178</v>
       </c>
     </row>
     <row r="249" spans="1:25" x14ac:dyDescent="0.35">
@@ -21213,8 +21213,8 @@
         <v>8</v>
       </c>
       <c r="Y249">
-        <f t="shared" si="3"/>
-        <v>209</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>26.785714285714285</v>
       </c>
     </row>
     <row r="250" spans="1:25" x14ac:dyDescent="0.35">
@@ -21291,8 +21291,8 @@
         <v>10</v>
       </c>
       <c r="Y250">
-        <f t="shared" si="3"/>
-        <v>258</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>25.714285714285712</v>
       </c>
     </row>
     <row r="251" spans="1:25" x14ac:dyDescent="0.35">
@@ -21369,8 +21369,8 @@
         <v>15</v>
       </c>
       <c r="Y251">
-        <f t="shared" si="3"/>
-        <v>315</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>24.705882352941178</v>
       </c>
     </row>
     <row r="252" spans="1:25" x14ac:dyDescent="0.35">
@@ -21447,8 +21447,8 @@
         <v>0</v>
       </c>
       <c r="Y252">
-        <f t="shared" si="3"/>
-        <v>234</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>25.757575757575758</v>
       </c>
     </row>
     <row r="253" spans="1:25" x14ac:dyDescent="0.35">
@@ -21525,8 +21525,8 @@
         <v>0</v>
       </c>
       <c r="Y253">
-        <f t="shared" si="3"/>
-        <v>283</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>25.609756097560975</v>
       </c>
     </row>
     <row r="254" spans="1:25" x14ac:dyDescent="0.35">
@@ -21603,8 +21603,8 @@
         <v>8</v>
       </c>
       <c r="Y254">
-        <f t="shared" si="3"/>
-        <v>237</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>32.307692307692307</v>
       </c>
     </row>
     <row r="255" spans="1:25" x14ac:dyDescent="0.35">
@@ -21681,8 +21681,8 @@
         <v>10</v>
       </c>
       <c r="Y255">
-        <f t="shared" si="3"/>
-        <v>346</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>31.182795698924732</v>
       </c>
     </row>
     <row r="256" spans="1:25" x14ac:dyDescent="0.35">
@@ -21759,8 +21759,8 @@
         <v>4</v>
       </c>
       <c r="Y256">
-        <f t="shared" si="3"/>
-        <v>157</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>32.558139534883722</v>
       </c>
     </row>
     <row r="257" spans="1:25" x14ac:dyDescent="0.35">
@@ -21837,8 +21837,8 @@
         <v>8</v>
       </c>
       <c r="Y257">
-        <f t="shared" si="3"/>
-        <v>190</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>29.411764705882355</v>
       </c>
     </row>
     <row r="258" spans="1:25" x14ac:dyDescent="0.35">
@@ -21915,8 +21915,8 @@
         <v>10</v>
       </c>
       <c r="Y258">
-        <f t="shared" ref="Y258:Y261" si="4">SUM(X258,W258,V258,U258,R258,P258,N258,L258,I258,G258)</f>
-        <v>248</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>28.985507246376812</v>
       </c>
     </row>
     <row r="259" spans="1:25" x14ac:dyDescent="0.35">
@@ -21993,8 +21993,8 @@
         <v>6</v>
       </c>
       <c r="Y259">
-        <f t="shared" si="4"/>
-        <v>124</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>29.411764705882355</v>
       </c>
     </row>
     <row r="260" spans="1:25" x14ac:dyDescent="0.35">
@@ -22071,8 +22071,8 @@
         <v>6</v>
       </c>
       <c r="Y260">
-        <f t="shared" si="4"/>
-        <v>296</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>35.802469135802468</v>
       </c>
     </row>
     <row r="261" spans="1:25" x14ac:dyDescent="0.35">
@@ -22149,8 +22149,8 @@
         <v>4</v>
       </c>
       <c r="Y261">
-        <f t="shared" si="4"/>
-        <v>149</v>
+        <f>IF(menu[[#This Row],[Calories]]=0,0,menu[[#This Row],[Calories from Fat]]/menu[[#This Row],[Calories]]*100)</f>
+        <v>36.585365853658537</v>
       </c>
     </row>
   </sheetData>
@@ -22167,7 +22167,7 @@
   <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22192,12 +22192,12 @@
     <col min="20" max="20" width="8.7265625" customWidth="1"/>
     <col min="21" max="21" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>3</v>
@@ -22263,12 +22263,12 @@
         <v>23</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B2" s="5">
         <f>AVERAGE(menu!D:D)</f>
@@ -22356,12 +22356,12 @@
       </c>
       <c r="W2" s="5">
         <f>AVERAGE(menu!Y:Y)</f>
-        <v>163.83076923076922</v>
+        <v>27.705617721662176</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B3" s="5">
         <f>_xlfn.STDEV.S(menu!D:D)</f>
@@ -22449,12 +22449,12 @@
       </c>
       <c r="W3" s="5">
         <f>_xlfn.STDEV.S(menu!Y:Y)</f>
-        <v>115.94494356214908</v>
+        <v>18.709704992069859</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B4" s="5">
         <f>MEDIAN(menu!D:D)</f>
@@ -22542,12 +22542,12 @@
       </c>
       <c r="W4" s="5">
         <f>MEDIAN(menu!Y:Y)</f>
-        <v>145</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B5" s="5">
         <f>_xlfn.QUARTILE.INC(menu!D:D,3)-_xlfn.QUARTILE.INC(menu!D:D,1)</f>
@@ -22635,7 +22635,7 @@
       </c>
       <c r="W5" s="5">
         <f>_xlfn.QUARTILE.INC(menu!Y:Y,3)-_xlfn.QUARTILE.INC(menu!Y:Y,1)</f>
-        <v>153.25</v>
+        <v>34.432913633680897</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
@@ -22701,8 +22701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A898A898-C755-4A4D-BF05-C807C723F72C}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23087,19 +23087,19 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
-        <v>Total Percentage</v>
+        <v>% cal from fat related to total</v>
       </c>
       <c r="B23">
-        <v>163.83076923076922</v>
+        <v>27.705617721662176</v>
       </c>
       <c r="C23">
-        <v>115.94494356214908</v>
+        <v>18.709704992069859</v>
       </c>
       <c r="D23">
-        <v>145</v>
+        <v>31.25</v>
       </c>
       <c r="E23">
-        <v>153.25</v>
+        <v>34.432913633680897</v>
       </c>
     </row>
   </sheetData>
